--- a/biology/Botanique/Bugle_(plante)/Bugle_(plante).xlsx
+++ b/biology/Botanique/Bugle_(plante)/Bugle_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ajuga
 Le genre Ajuga, les bugles (nom féminin), regroupe une cinquantaine d'espèces de plantes annuelles, bisannuelles ou vivaces de la famille des Lamiacées originaires d'Eurasie. Ce sont pour la plupart des plantes herbacées, rarement des arbustes. Elles sont reconnaissables à l'absence ou l'extrême réduction de la lèvre supérieure.
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vulgaire des bugles « provient du latin médiéval bugula, peut-être dérivé de bugillo, qui désignait une plante indéterminée[1] ».
-Le nom botanique Ajuga a deux origines possibles : tiré du grec a, privatif et du latin jugum, joug, en référence à la corolle qui semble dépourvue de lèvre supérieure ; déformation du latin abigere, chasser, allusion aux prétendues vertus de ces plantes qui faciliteraient l'accouchement[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vulgaire des bugles « provient du latin médiéval bugula, peut-être dérivé de bugillo, qui désignait une plante indéterminée ».
+Le nom botanique Ajuga a deux origines possibles : tiré du grec a, privatif et du latin jugum, joug, en référence à la corolle qui semble dépourvue de lèvre supérieure ; déformation du latin abigere, chasser, allusion aux prétendues vertus de ces plantes qui faciliteraient l'accouchement.
 </t>
         </is>
       </c>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,7 +587,9 @@
           <t>Liste complète d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ajuga australis
